--- a/FedExApplication/src/TestFiles/CrudOperation_DEV.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation_DEV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -173,6 +173,39 @@
   </si>
   <si>
     <t>320018787860</t>
+  </si>
+  <si>
+    <t>$19.10</t>
+  </si>
+  <si>
+    <t>310109785604</t>
+  </si>
+  <si>
+    <t>$18.06</t>
+  </si>
+  <si>
+    <t>310109785615</t>
+  </si>
+  <si>
+    <t>$49.94</t>
+  </si>
+  <si>
+    <t>310109785648</t>
+  </si>
+  <si>
+    <t>310109785821</t>
+  </si>
+  <si>
+    <t>310109785832</t>
+  </si>
+  <si>
+    <t>310109785865</t>
+  </si>
+  <si>
+    <t>$43.56</t>
+  </si>
+  <si>
+    <t>310109785876</t>
   </si>
 </sst>
 </file>
@@ -611,20 +644,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="35.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -729,13 +762,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -782,13 +815,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -835,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -888,10 +921,10 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>

--- a/FedExApplication/src/TestFiles/CrudOperation_DEV.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation_DEV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
